--- a/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H2">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.2697250123528</v>
+        <v>39.92590366666667</v>
       </c>
       <c r="N2">
-        <v>29.2697250123528</v>
+        <v>119.777711</v>
       </c>
       <c r="O2">
-        <v>0.813356797162906</v>
+        <v>0.8537340759835568</v>
       </c>
       <c r="P2">
-        <v>0.813356797162906</v>
+        <v>0.8537340759835568</v>
       </c>
       <c r="Q2">
-        <v>970.1305415948353</v>
+        <v>2705.87898498953</v>
       </c>
       <c r="R2">
-        <v>970.1305415948353</v>
+        <v>24352.91086490576</v>
       </c>
       <c r="S2">
-        <v>0.2070735265952496</v>
+        <v>0.3482925930351946</v>
       </c>
       <c r="T2">
-        <v>0.2070735265952496</v>
+        <v>0.3482925930351946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H3">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I3">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J3">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.0627015641567</v>
+        <v>2.145018</v>
       </c>
       <c r="N3">
-        <v>2.0627015641567</v>
+        <v>6.435054</v>
       </c>
       <c r="O3">
-        <v>0.05731903313124258</v>
+        <v>0.04586683811810605</v>
       </c>
       <c r="P3">
-        <v>0.05731903313124258</v>
+        <v>0.04586683811810605</v>
       </c>
       <c r="Q3">
-        <v>68.36722192433741</v>
+        <v>145.373268870306</v>
       </c>
       <c r="R3">
-        <v>68.36722192433741</v>
+        <v>1308.359419832754</v>
       </c>
       <c r="S3">
-        <v>0.01459292449871674</v>
+        <v>0.018712009315168</v>
       </c>
       <c r="T3">
-        <v>0.01459292449871674</v>
+        <v>0.018712009315168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H4">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I4">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J4">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.65390207341314</v>
+        <v>4.695284333333333</v>
       </c>
       <c r="N4">
-        <v>4.65390207341314</v>
+        <v>14.085853</v>
       </c>
       <c r="O4">
-        <v>0.1293241697058514</v>
+        <v>0.1003990858983372</v>
       </c>
       <c r="P4">
-        <v>0.1293241697058514</v>
+        <v>0.1003990858983372</v>
       </c>
       <c r="Q4">
-        <v>154.2512796790602</v>
+        <v>318.2112373006671</v>
       </c>
       <c r="R4">
-        <v>154.2512796790602</v>
+        <v>2863.901135706003</v>
       </c>
       <c r="S4">
-        <v>0.0329248024832447</v>
+        <v>0.04095919203600889</v>
       </c>
       <c r="T4">
-        <v>0.0329248024832447</v>
+        <v>0.04095919203600889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H5">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J5">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.2697250123528</v>
+        <v>39.92590366666667</v>
       </c>
       <c r="N5">
-        <v>29.2697250123528</v>
+        <v>119.777711</v>
       </c>
       <c r="O5">
-        <v>0.813356797162906</v>
+        <v>0.8537340759835568</v>
       </c>
       <c r="P5">
-        <v>0.813356797162906</v>
+        <v>0.8537340759835568</v>
       </c>
       <c r="Q5">
-        <v>1751.376663833719</v>
+        <v>2434.58603628859</v>
       </c>
       <c r="R5">
-        <v>1751.376663833719</v>
+        <v>21911.27432659731</v>
       </c>
       <c r="S5">
-        <v>0.3738298369418142</v>
+        <v>0.3133725817932359</v>
       </c>
       <c r="T5">
-        <v>0.3738298369418142</v>
+        <v>0.3133725817932358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H6">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I6">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J6">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.0627015641567</v>
+        <v>2.145018</v>
       </c>
       <c r="N6">
-        <v>2.0627015641567</v>
+        <v>6.435054</v>
       </c>
       <c r="O6">
-        <v>0.05731903313124258</v>
+        <v>0.04586683811810605</v>
       </c>
       <c r="P6">
-        <v>0.05731903313124258</v>
+        <v>0.04586683811810605</v>
       </c>
       <c r="Q6">
-        <v>123.4233455351129</v>
+        <v>130.798063181914</v>
       </c>
       <c r="R6">
-        <v>123.4233455351129</v>
+        <v>1177.182568637226</v>
       </c>
       <c r="S6">
-        <v>0.026344606553799</v>
+        <v>0.01683593273842818</v>
       </c>
       <c r="T6">
-        <v>0.026344606553799</v>
+        <v>0.01683593273842818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H7">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I7">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J7">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.65390207341314</v>
+        <v>4.695284333333333</v>
       </c>
       <c r="N7">
-        <v>4.65390207341314</v>
+        <v>14.085853</v>
       </c>
       <c r="O7">
-        <v>0.1293241697058514</v>
+        <v>0.1003990858983372</v>
       </c>
       <c r="P7">
-        <v>0.1293241697058514</v>
+        <v>0.1003990858983372</v>
       </c>
       <c r="Q7">
-        <v>278.4698347423234</v>
+        <v>286.3071997010675</v>
       </c>
       <c r="R7">
-        <v>278.4698347423234</v>
+        <v>2576.764797309607</v>
       </c>
       <c r="S7">
-        <v>0.05943914582432752</v>
+        <v>0.03685260040885233</v>
       </c>
       <c r="T7">
-        <v>0.05943914582432752</v>
+        <v>0.03685260040885233</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H8">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I8">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J8">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.2697250123528</v>
+        <v>39.92590366666667</v>
       </c>
       <c r="N8">
-        <v>29.2697250123528</v>
+        <v>119.777711</v>
       </c>
       <c r="O8">
-        <v>0.813356797162906</v>
+        <v>0.8537340759835568</v>
       </c>
       <c r="P8">
-        <v>0.813356797162906</v>
+        <v>0.8537340759835568</v>
       </c>
       <c r="Q8">
-        <v>1089.034311468528</v>
+        <v>1492.179890409472</v>
       </c>
       <c r="R8">
-        <v>1089.034311468528</v>
+        <v>13429.61901368525</v>
       </c>
       <c r="S8">
-        <v>0.2324534336258423</v>
+        <v>0.1920689011551263</v>
       </c>
       <c r="T8">
-        <v>0.2324534336258423</v>
+        <v>0.1920689011551263</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H9">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I9">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J9">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.0627015641567</v>
+        <v>2.145018</v>
       </c>
       <c r="N9">
-        <v>2.0627015641567</v>
+        <v>6.435054</v>
       </c>
       <c r="O9">
-        <v>0.05731903313124258</v>
+        <v>0.04586683811810605</v>
       </c>
       <c r="P9">
-        <v>0.05731903313124258</v>
+        <v>0.04586683811810605</v>
       </c>
       <c r="Q9">
-        <v>76.74663075032004</v>
+        <v>80.16732071711601</v>
       </c>
       <c r="R9">
-        <v>76.74663075032004</v>
+        <v>721.5058864540441</v>
       </c>
       <c r="S9">
-        <v>0.01638150207872684</v>
+        <v>0.01031889606450987</v>
       </c>
       <c r="T9">
-        <v>0.01638150207872684</v>
+        <v>0.01031889606450987</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H10">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I10">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J10">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.65390207341314</v>
+        <v>4.695284333333333</v>
       </c>
       <c r="N10">
-        <v>4.65390207341314</v>
+        <v>14.085853</v>
       </c>
       <c r="O10">
-        <v>0.1293241697058514</v>
+        <v>0.1003990858983372</v>
       </c>
       <c r="P10">
-        <v>0.1293241697058514</v>
+        <v>0.1003990858983372</v>
       </c>
       <c r="Q10">
-        <v>173.1570432596295</v>
+        <v>175.4802826868509</v>
       </c>
       <c r="R10">
-        <v>173.1570432596295</v>
+        <v>1579.322544181658</v>
       </c>
       <c r="S10">
-        <v>0.03696022139827924</v>
+        <v>0.02258729345347599</v>
       </c>
       <c r="T10">
-        <v>0.03696022139827924</v>
+        <v>0.02258729345347599</v>
       </c>
     </row>
   </sheetData>
